--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/14_Batman_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/14_Batman_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65929CBE-0433-4F43-813A-B69BDAC432E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EBBC92-FCD7-4DB2-BA7E-F558755DE40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="665" xr2:uid="{B2123C36-60C7-47D4-88EB-F17B810F9DDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{4BC78219-4E68-4C55-A9BD-3B9B33FB8106}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -978,14 +978,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{58D844C7-E430-4D40-A3A7-8CF37070DDBA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4B5B4B01-72CB-460A-833E-C36E7D693CAD}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B0DCBE86-8BE8-4910-9A41-24846375238E}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{4AF715F6-0E82-411B-BA18-68FBDB1E963C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B1CBE8BB-3B9B-4613-B2BF-B7D1C0E00493}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4B74924E-25D2-4AEC-ADD1-AF23E41BCFB5}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{19CB2931-A836-4C29-87B1-0E608613E9A6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DACA152A-F063-4C26-A157-2942224834D5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{51C73E32-E2E6-4B0A-BFE3-AB17FDDF8C5D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A8DD0788-12DF-435B-81FF-B181E960B5A2}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{41F6CA99-B46D-4BA1-A859-1734422380E0}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{55C33584-64AC-4FCE-A183-CD1E48DB0155}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{84F1D0BA-6537-430A-A60D-6AE169294230}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4B39C779-8C49-44C2-9A5A-4BF37CE0BEE2}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{AEC086D9-ABC2-4A83-960D-3B913B8FF378}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D3429FF4-A4D6-428C-816D-90E325F2FADB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E426E-F757-4911-B58B-16E5DD78F303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11387CEE-0DC9-4CD6-93A2-7A94F1B3D61C}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2611,17 +2611,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9A1FD61-FCE5-4A9C-8D69-2BC1328DABFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44BF2737-7CA2-4C2E-9FDF-CFF1F689259A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BBDEB37-0E0D-4DFC-9CDF-21BB6BBBC45E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15C98905-E92B-4F64-9336-C5D92C470348}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAA9C7EC-3066-4696-9375-5B6D0AB97D81}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2355F0FD-9938-4E00-AE78-4094AEB4BE1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7F7E8EE-AA3B-4022-A66A-FAC4310F9852}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AD30BE8-175A-492D-9C46-868ABB5C2EAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{82857CA0-E1C8-4501-A3FD-669E332943F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{38A03224-41E0-4F7C-8F57-90F08F73AC40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC12552C-C9BC-4D65-A768-84EFBF90C7D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A82421F8-B7B5-4D2F-BAC5-28CD21CEFBD5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02EBD0DA-82E5-489A-8ACA-B3845BC1E9D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2D8826C-48F1-4BCD-9C8C-5FB9A971E522}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE3AAF9F-20CD-43DB-B669-8AEEF39C9361}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8043480-C757-4346-9F09-DF303FE8E9EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53FA55FC-B555-4361-BB2E-F9BAABAE2FA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54993E71-F301-4796-8A7C-84CE673C8BBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D82A66F-3FB9-4B98-B2F3-8022C6D4DF12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{433A99C7-E0FD-49F0-BBF7-92504815B8EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{62AE9A8D-FEF1-4553-A249-8B9C7AB5CD07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F808AE89-FBB5-49C2-AD97-A28AF76E2385}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2634,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71A80C1-175F-4805-870F-E240C4D88336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773B615-CC52-4568-A5D7-30DD54319367}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3881,17 +3881,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1505686-992F-48EF-9032-FB677DCEAA88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A8F9E3F-B54A-41B2-AFA9-A4E61C6CCB52}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BF04CE6-6E28-44A8-B2C9-2A05896A275F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CEEFCDB-3071-45BC-8650-65D7EF7BCAF1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FB1B8E6-CC63-4B68-908D-04D07FCBA7D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBFE9C25-A747-4A67-B453-0EF93317FD8F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84ED68E0-CB1B-4471-B32A-5FC191EF6C29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AFC147E-49F3-4F73-94B1-3B536CBCAFA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2A0B0DBB-0773-4339-90B7-5F73F19475B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B7A10A54-9B87-4B85-A9D2-23D45C8EA349}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62389153-1EBC-4D7D-91DC-C582E133B952}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4412D23-D184-40C8-B41A-ED8DC1889304}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA945E05-4C24-47F5-892C-096245745D8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC58F4A9-CB22-41B0-9FAA-6776B59EB514}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6877562D-FEE5-4D37-9060-71A380826786}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E49D8F28-D93F-4A53-A8D6-61FD3ACD488D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C09FF3E5-CCAE-409B-A2A8-0C156F723463}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDDAEC66-F082-4345-B5DC-A42C5B57590C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7521551D-CA50-4071-B02E-9498D5FD3FEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E5C486FB-5193-4D0D-9F98-DDF2B2B8ABDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20C70C52-ED7C-41FA-AE82-9B209F5481C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D82130F-50B8-4579-84DD-22E4A53CD585}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0385F2A4-B676-4C5B-AE93-98CC61F4BE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7C70A-1644-4734-8AB3-75B24215256C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5151,17 +5151,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3901BBC3-69DA-46FB-BFB2-B78B5B5CB712}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CBB3E66-EF9C-4FF5-A4BD-D3D94B68A046}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{155688A3-8477-4F55-92AB-74D09FA5CFB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB84ED1E-50EE-44BF-812D-9737F43619C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1DC262B-451F-4999-BE1D-203190153A1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D7E6762-784F-4FAE-B1AF-A9DB90A001AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C26D35BF-15BB-4CED-8C22-4A3975C1C11C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE7974E0-F6DB-4F4B-A6C7-E420A445DA70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{094A6024-D077-4CAB-9088-7006B46C4AE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9924D6D5-7A37-472C-90E6-BD6D89F3D6DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83CC4B6B-988C-4238-81B5-B4B8F8FBBBEA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D8FF84A-C8BE-43C8-B446-541EAF3F1E32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C2F45CD-1714-4D8B-9F25-525DDC1F4501}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C46BC6EC-B976-4DF1-840A-EDFEAD7596D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A3420E9-2F39-45F6-AC80-CA4956736DF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5CF7F79-052D-418B-B8D9-FEC8FF357E36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{472AADB1-9054-4EF8-AD44-1FD147769609}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33E96F8E-280D-4140-9AF8-FB71C601BD2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF911564-232E-4E4C-B6A6-A2E04DAC6F48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{023CCF36-9715-4382-8F60-0BDB3DBCF404}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{810C7733-951C-443A-BE40-39A04B46DB62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57DC4B08-AD1A-412B-A46E-8B8B3FB738E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5174,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B05726-3C44-472D-89D0-F72179E2D2B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBADF90-88CF-4373-A7B3-F026381B475A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6421,17 +6421,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{029C60CD-E391-4BF1-9211-DA2EE25485AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C9A0B00-712D-4B49-AB1D-64ECB87CE0CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5048503A-00F6-438D-8F94-C3A05429A461}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E04E6E28-CDD0-4107-92A1-F1E8BA73E023}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5DAD911-4A72-4942-BD80-81F4FB1191CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF0A76E0-1055-404B-BA32-1655C6962433}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88024578-AFD9-4641-B32E-3ACD89EBF804}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E20A825-B7F8-4FA0-A474-C00B65558C9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BCFBFCE1-54C0-4380-BB00-A44D3C2860EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DE4615FA-D972-4C32-9BAB-31567E903BBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BEB0347-F653-4DAE-A927-C00B72001863}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{146F95DE-23B9-4319-B2A0-EA814AC5D97B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D675AC8A-1F04-4EAA-AF9C-24AEBCEFE533}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{260F0056-1DE8-4FE2-AA16-D913D0DDACD3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A3312B7-F1D8-4F65-B9AC-1A5019FFFD37}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0188E2A5-1E5A-4F6A-8FB5-80CC26CE201C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08CA5517-631E-4129-A0F6-861B7011ADB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C98E548-6A7B-419E-899D-00EB6B2932C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{412B5583-E6A9-4E37-92AA-12591D24A0F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1EA0F6E0-95CC-4663-ACE9-331BECD53F22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC1D317E-1A92-414F-BF92-6A79C678F916}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14C8A55F-1B8F-4CD3-B2AF-AC2FEEB7441D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447A6836-220B-4821-9389-CDFA7CD6DFE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FCEBB8-8643-46FE-89F0-903806AEB192}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7691,17 +7691,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23761A32-82E3-4DDC-B602-3D9B05AF098C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1B92610-FF08-4995-BD7F-214BE806F278}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CEF4EAB-415E-433A-849A-8DF10B1243CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F283A374-4CD7-4314-A892-453A24A7BD9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62EC2B84-3206-45F1-B33F-B4684C84C1B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CC80799-D925-4C7C-9C81-A1E6A82F9B9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76F6EE18-98FE-4660-B122-0498CBCDB269}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{311821B4-9C9F-4559-BADF-FFCD2617B06B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CA6D496F-4FD6-4A98-8442-C27063C48278}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FCE493CD-697B-4C0C-8909-CF10A4F93F49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D59DF90C-8A56-4BC6-820E-7CD87752579D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{913E5C63-FDAF-4F5D-9500-ACCF2553797B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3F003E6-6DEE-431D-AEA2-C5D9D60F6042}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA44245A-1A30-4367-891C-6BE010AF9A9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7B72220-BDC8-42EC-A14B-1A464847283F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{186D2B12-5066-4DF7-8836-DE6588C6799E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A177D8A6-2D2B-4011-92A7-1A7B5FF64F19}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7206CCDD-0A2C-464E-8D47-9FB2C33C7F2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0088DCAD-D5E5-4495-BD89-625CA7C49452}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{258033B1-1881-4DA2-B92E-796DDB6DEA6E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{05DDB35E-F92C-4B95-A8D2-366FDDF6FB2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D9B3037-5082-426C-B2C2-A8A3E99EB1DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7714,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5980DF80-D7C2-41BE-8E60-95ADAF7EAC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C183F-37D5-4B85-885A-2A5F32F02B7B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8961,17 +8961,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE24CC9C-0710-49EB-AF20-87DA6BDA9370}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AFF1096-7E90-48C4-B8EC-8D266BECCB4B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DBFB805-4D13-4D8F-9F26-B490351CE50B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85526EF6-A984-46D9-9870-B1A9EE588FF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8185F3FD-20FA-442F-980B-4DCF1FEAD5C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03937AD2-0151-4A5E-ADE4-A661E5C9E3FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3F56265-3885-4D27-9F41-0EB56947D090}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71375077-5424-476D-84E0-8DBC9B237DDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E789F482-C9CD-4256-B9B8-3BA15818027B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B88F96A-AD5A-408D-A311-61F117FC6CFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79DA2619-2F6B-4B41-A71C-1A2CD00A9CA9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F86FF8D-A1A8-48F8-B4A5-286043700E86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C160AB7E-FE10-4A63-B1BC-441010F04846}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A25FB47C-7BBF-4A11-A3B4-8013C12F8D44}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFFC16F0-8E35-4994-AD64-E980E59778A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17D87E46-D3E7-4F36-B379-9394295A86A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CA0CBE4-75C9-4F12-9F74-6F25A6C9CA56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62B68DEE-CD9E-4480-B79C-ACD66D7F6009}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{161992E6-5561-4799-89A7-A29306574133}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E792C12-3E54-4265-BDDA-2AD7239193F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{33ED0A04-2231-4608-B601-CED8602FD5BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBD3FBAF-16DC-43FE-999F-9E8C1DC97C21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8984,7 +8984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ABE02C-B2AE-406B-8521-B19A905B9ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55CDE21-5B34-40AC-9557-70ABEF4D8345}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10231,17 +10231,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45A0CAEA-C628-4924-A8D1-434458BEF277}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{595E8D06-254A-4D28-867F-54C7510A034C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C778B7D1-17C2-4C1C-BEFC-A6B7FBA4EE9B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA1D8D07-AC6B-451B-B0E8-BFC76FF2F0C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A89977CD-733C-4372-B649-CD7DA00BE0BD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C9DF34B-6A92-4F8C-8623-83D6C546049D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1438139F-D0FF-4BAE-A543-018C4786895D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6B1B4E6-B7CB-43E6-9C91-131E0D9D270C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6EAE57FE-7B80-4111-9D0D-609E0412ECFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5090FCC0-5734-4853-9993-DA3AF654F844}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4F87DE1-47BF-4D48-B6E1-450807F51FCD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48115A57-33DB-498F-8DFA-F8CC509CA240}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF31689-9354-44CB-9354-75C9A6F37AED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF45860A-BACE-4971-BFA3-C934D2638C80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D37F80F7-5D03-4B17-BDE2-74459CF6F6F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE15EAC8-D5E7-45AB-AA8F-766334FCCE61}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{892F79E9-6396-4E30-8FDB-9CF4E5F54395}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{871EB381-C1FC-4622-9AE7-F1A3E623AC32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B30CFFF8-520F-47BD-B1BD-7BB817B6F152}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7DD3F398-E681-46A8-856B-D20400601190}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{51BEB100-85AA-416E-9EE0-7376A157B6FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88160486-9DD5-46C3-AD9C-54AEBD1D61A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10254,7 +10254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC26DA-1D41-4551-86F1-F73EFD3FA3C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEA4CB4-CA25-4EFC-B1EE-A66886F1E9DC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11501,17 +11501,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1E73AFB-242C-4070-A278-2197B64FBB24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7524607B-12E1-4D17-B532-9CBB0D2C59A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{15D73243-470F-4A4E-8A7B-399F69E92C51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1920C5B2-5FDA-4FBB-820B-047E912485D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71D35F27-1EFC-4C12-B940-BC0FBEEF28E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A83082B5-1D43-40EB-A926-B6E2F623DEA4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7A734AF-620D-4BF9-A1BD-4E0E5172C419}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25BFC96A-0B61-4332-BC49-AB38AD38ED87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ABC4683D-0F8F-4F16-AAC1-DE6D956A473F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EE41B9F-BD3C-42E7-8082-DC95400906AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6EBE6C5-5101-450A-B84E-C740CB83402B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A21E2C9A-70F7-4DF5-8311-2361DD56253E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24371334-243C-4725-9855-F90E461F0CA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9744DD91-879F-41EB-976D-D4B5C55D8DDB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B765B7B1-BEF1-4D89-B851-4F8636366AD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6108823-4795-42CC-98C0-18889710493C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2228667C-7870-4F17-AC7D-9A41BF03786A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72679BC9-1E0E-4CE8-B830-FB44B2CDE6E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{855BE045-8516-445A-BFB6-87AFF6558074}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DE5018DA-9740-4DE7-84BD-010B4F11F2D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ED60FADE-2C0D-4182-BE97-532F36D98816}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63D5F0F9-D024-462A-9483-F6647573D855}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11524,7 +11524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16A686-CB14-4CC4-A538-D93264EA6278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD285C8-6BDD-4FD4-9C15-F1BDF84FECF4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12771,17 +12771,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8D6F928-64BF-46FE-B421-907F56284CA2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C280583-72A5-48C6-86B8-70A8C8845EBF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A5B4592-4AE1-4B9E-917F-B228385C24E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D47D4380-A277-4352-8B07-62CFA9CC6785}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03C95E61-226F-4B64-B49E-8EADE3D3EEE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A26B91B-8689-4476-AAD5-D1DC006B2B05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99A577A2-BFD2-43C9-BA42-3727B052E247}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D05408CA-8541-489B-8E18-B038E5720077}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C307E9DA-E5AA-4E71-B9B6-E87539BE5BDA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{345724BC-89BF-40AB-9B1A-64C126C11499}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF575BD0-6A8D-4F5D-864B-1261BB19E671}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C75A5FF0-73D4-4294-9603-D3D0C6A029FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9094E557-F71C-430C-8EE2-550F2BB309B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4BF5438-0521-4CD9-9348-1AF2F377D2DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17602723-4A99-4E79-A555-85B958C99921}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDE444AB-3F60-4F8E-91B2-9AE7697781DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{831F59AE-67CA-40B0-8581-3EF3176B196C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F54E73C6-36D8-43C0-BDB5-7535C3931544}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51B7FB27-260F-4D43-8F1C-6814CF30A046}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{77FA1D0D-1E2B-40F2-8FE0-D65884E17F3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{340A3548-2752-4ED5-8905-255A0E49602D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{916282C8-0234-4FAF-A30B-8970D8806557}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12794,7 +12794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E024A10-9E7F-43B3-ACD3-F88518DFC3E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404ED88F-7B94-41A2-89F1-92425BCEF063}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14041,17 +14041,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4F3BD57-073B-47F8-9752-DDC9CE371EDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1577491B-7F33-4FCA-903E-94A47E5835AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA35E533-D47A-4985-8560-66A0170B82BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E58DEC08-D1C3-40CF-AD2B-DF50BE7D7950}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{722D8FD5-6E6D-46F2-9C88-F3960F3EA32C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1730D597-2629-4102-8EC9-F6C9767A05EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCE2F5B6-9128-4E2D-B005-30D21D6263F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0019060A-C983-497E-B9B1-17D2852F9BD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{28833A8A-98CA-4D0F-9FE7-C01DDCE97F69}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{63898909-DB7C-42EE-B542-6B48556C3A1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3224827A-5420-4D43-880F-B71B6BC3AF7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{473EB0C4-F5C3-4D97-B35C-6619D46F72D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CF573D1-A63B-41C1-9AB2-7507788F1B76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C903269-FA8F-4173-816C-EF25D44BC7F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01A0C7C9-F9CA-4856-88C7-25B791BB7C0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1104AF2F-CB70-4145-9EA1-94D77E833CCA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2884C356-96D2-4691-B899-C92818116D78}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23EEF50C-B6FA-4A44-91EF-F8991088B5E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51B6FF4C-C1A3-4F0B-B401-9A8F73413F0D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{16A9EC3C-0318-4E72-ABD0-5A62C85B31B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{10397829-C294-4653-B721-707290575345}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13AC3BCA-AEDF-4D28-AA8F-DF80E026799D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14064,7 +14064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7360AD-3E49-483F-B75E-9BAB81881632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C727CE-9DD2-44A1-BED1-E6A245679B1B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15311,17 +15311,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD03F2B3-3B36-4DEB-8E60-421B857C10F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13AFD628-8C2F-4646-8868-7E7E6C66BB8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9465BA01-28DE-4B3A-9B7A-380B68A4E9F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB040C17-449D-47E5-B94C-097FEDB172CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{064B76E6-1977-4D33-B5D5-8228E176DC6C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F627F704-D0F7-4189-8C6E-BC07E54393B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE48C4E1-1414-43A6-8223-565B70F33F70}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36C4368A-0127-417D-B49D-9DC90B5C1ABF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B3A1D85-4F12-4D81-A1BF-0B523B6C2D0D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D68AE0C8-7356-40C1-9731-41E2D749CF0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C02DAF37-96E0-4E72-959B-8AE4E88D40CC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49E8F0A1-813A-40B0-9692-AB28DD1CB17B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF7C3EFC-D777-4A11-AE4A-7F4162D8389C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB76B570-08EC-459B-99D4-11AB53DB288E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1E2F1FB-7FE1-46EC-97EA-B688D4133EA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75B3706-0729-46CE-8D9D-581540E112A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14E661FD-24E5-41B0-AA72-75197979DF97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB1FE97E-86D4-4AE5-A10B-A8FE2F850502}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA454F15-83C4-48A8-B83D-9420DA9ED134}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D79F7835-5567-4F1C-A519-E147B4B1D7EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{423DE7E4-F427-4DE1-A73B-141F9E8B25AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2EE8436-613D-40BA-ADA2-443C560410BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15334,7 +15334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3720B94-3FAB-4B71-8BFE-B65DCF14D739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8023BFF4-A456-4843-98EC-D7531D97E8C1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16581,17 +16581,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{248E6FFD-9BCA-4FDD-BEF8-A6811F76B567}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BBAE9FC-65CF-4842-A0D0-A11C32F8E8DB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B03E570D-D7A7-4142-B32E-067143275D1F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{584CD74B-51B4-411B-9F7F-C22D1CE06109}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A98F96BD-F318-4A7C-A87C-FCC67A79E0A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51E3594B-A43F-424E-A597-B7AF6AB052C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEA78083-DB4E-4821-8D23-E7B25B3C96B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C8222ED-4B94-4E89-B97B-8FB0D8B26F01}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{521B2A96-D125-4BEB-8B43-638A78A3B6E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AACBF8C5-1CB5-42DC-BEE0-C863595A474D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F76F78E8-5494-46B2-990A-AB8012DF60BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3C2DDEF-EE75-4DF4-9795-7374C9F987BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B809CEC1-C5AF-41B2-84B8-893974858DD0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4FB9DC74-B36E-483F-A4AC-A7DB0B1A0D1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A799033-C3A9-49BC-A846-BA5D4752E26E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE88A0C-DB57-4153-A34C-A7306AE387D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{377C3151-FD4E-45FB-A8F0-7C894D76BBF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{279E0DD0-5305-4194-97ED-181EA5CE0238}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D6BE57B-667B-47B5-BD0D-CA24F01B3669}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3DF7FC6-1007-4020-9CC0-12B8D0CC3B20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{401CED0E-2B6F-475E-A27E-B0F9C7256F37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AC92E19-E179-464E-9912-C60C2D9C6D31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
